--- a/docs/assets/disciplinas/LOM3022.xlsx
+++ b/docs/assets/disciplinas/LOM3022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EQD-6,EQN-11</t>
+    <t>EQD-7,EQN-11</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito fraco)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ4082 -  Corrosão  (Requisito fraco)
 </t>
   </si>
 </sst>
@@ -490,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -725,6 +729,14 @@
         <v>39</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOM3022.xlsx
+++ b/docs/assets/disciplinas/LOM3022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Munir o aluno de ferramentas para: especificar materiais para aplicação na indústria química e definir os meios possíveis de processar os materiais comuns a sua área de atuação.</t>
+    <t>5840963 - Daniela Camargo Vernilli</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840963 - Daniela Camargo Vernilli</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5840820 - Gustavo Aristides Santana Martinez</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Introdução aos materiais para a indústria química e outras, propriedades,  especificações, seleção, fabricação, aplicação e possíveis falhas.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Introdução aos materiais. - Seleção de materiais. - Fatores que influenciam na seleção dos materiais (indústria química, petroquímica, Nuclear e outras), melhoria das propriedades mecânicas dos metais. - Falhas em serviço e em processo.  Produtos siderúrgicos para aplicação em indústrias químicas - Aços carbono e especiais - Ferro fundido. – Processo de fabricação de aços e ferros fundidos, especificações, propriedades e aplicações.  Metais e ligas não ferrosas: especificações, propriedades e aplicações. Introdução à corrosão. - Causas e formas de corrosão. Proteção de superfícies metálicas contra a corrosão, revestimentos. Requisitos específicos de materiais metálicos para a indústria de óleo e gás.  Materiais não metálicos. Especificações, propriedades e aplicações.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Duas provas</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão aplicadas duas avaliações (P1 e P2) que comporão a nota final (NF). A nota final será calculada através da expressão: NF= (P1+P2)/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para o aluno que obtiver Nota Final maior ou igual a 3,0 e menor do que 5,0, será aplicada uma avaliação de recuperação (NR), com pontuação de 0 a 10, que levará ao cálculo da média final(MF) através da seguinte expressão: MF=(NF+NR)/2.onde: NF=Nota Final e NR=Nota da Prova de Recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1)Telles, P. C. S. - Materiais para Equipamentos de Processo - Ed. Interciência, 4º Ed., 1989.2)Bresciani, F., E. - Seleção de Materiais Metálicos - Ed. da UNICAMP, 2º Ed.3)Freire, J. M. -Materiais de Construção Mecânica - Ed. Livros Técnicos e Científicos, Editora 1993.4)A. Remy/ M. Gay/ R. Gonthier - Materiais - Hemus Editora Limitada - 2ª Edição.5)Chiaverini, V.Tecnologia Mecânica - Materiais de Construção Mecânica - Vol. II - Ed. McGraw Hill do Brasil Ltda.6)Gentil, V. - Corrosão. - Ed. Guanabara Dois, 1982.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -494,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,56 +607,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -683,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -694,47 +688,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3022.xlsx
+++ b/docs/assets/disciplinas/LOM3022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Munir o aluno de ferramentas para: especificar materiais para aplicação na indústria química e definir os meios possíveis de processar os materiais comuns a sua área de atuação.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840963 - Daniela Camargo Vernilli</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5840820 - Gustavo Aristides Santana Martinez</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Introdução aos materiais para a indústria química e outras, propriedades,  especificações, seleção, fabricação, aplicação e possíveis falhas.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução aos materiais. - Seleção de materiais. - Fatores que influenciam na seleção dos materiais (indústria química, petroquímica, Nuclear e outras), melhoria das propriedades mecânicas dos metais. - Falhas em serviço e em processo.  Produtos siderúrgicos para aplicação em indústrias químicas - Aços carbono e especiais - Ferro fundido. – Processo de fabricação de aços e ferros fundidos, especificações, propriedades e aplicações.  Metais e ligas não ferrosas: especificações, propriedades e aplicações. Introdução à corrosão. - Causas e formas de corrosão. Proteção de superfícies metálicas contra a corrosão, revestimentos. Requisitos específicos de materiais metálicos para a indústria de óleo e gás.  Materiais não metálicos. Especificações, propriedades e aplicações.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5840820 - Gustavo Aristides Santana Martinez</t>
+    <t>Duas provas</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas provas</t>
+    <t>Serão aplicadas duas avaliações (P1 e P2) que comporão a nota final (NF). A nota final será calculada através da expressão: NF= (P1+P2)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas avaliações (P1 e P2) que comporão a nota final (NF). A nota final será calculada através da expressão: NF= (P1+P2)/2</t>
+    <t>Para o aluno que obtiver Nota Final maior ou igual a 3,0 e menor do que 5,0, será aplicada uma avaliação de recuperação (NR), com pontuação de 0 a 10, que levará ao cálculo da média final(MF) através da seguinte expressão: MF=(NF+NR)/2.onde: NF=Nota Final e NR=Nota da Prova de Recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para o aluno que obtiver Nota Final maior ou igual a 3,0 e menor do que 5,0, será aplicada uma avaliação de recuperação (NR), com pontuação de 0 a 10, que levará ao cálculo da média final(MF) através da seguinte expressão: MF=(NF+NR)/2.onde: NF=Nota Final e NR=Nota da Prova de Recuperação.</t>
+    <t>1)Telles, P. C. S. - Materiais para Equipamentos de Processo - Ed. Interciência, 4º Ed., 1989.2)Bresciani, F., E. - Seleção de Materiais Metálicos - Ed. da UNICAMP, 2º Ed.3)Freire, J. M. -Materiais de Construção Mecânica - Ed. Livros Técnicos e Científicos, Editora 1993.4)A. Remy/ M. Gay/ R. Gonthier - Materiais - Hemus Editora Limitada - 2ª Edição.5)Chiaverini, V.Tecnologia Mecânica - Materiais de Construção Mecânica - Vol. II - Ed. McGraw Hill do Brasil Ltda.6)Gentil, V. - Corrosão. - Ed. Guanabara Dois, 1982.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -482,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -607,62 +619,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -677,7 +683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -688,25 +694,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
